--- a/programs/autoencoder/data/dqn_result_enc.xlsx
+++ b/programs/autoencoder/data/dqn_result_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1333828717470169</v>
+        <v>0.7944039106369019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06950640678405762</v>
+        <v>-0.6028264760971069</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1972259432077408</v>
+        <v>-0.5451630353927612</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1197367757558823</v>
+        <v>0.7973164916038513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06197433173656464</v>
+        <v>-0.5719220042228699</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1728472709655762</v>
+        <v>-0.5397773385047913</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.123346135020256</v>
+        <v>0.7961623072624207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06371136009693146</v>
+        <v>-0.5703800320625305</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1784526705741882</v>
+        <v>-0.5495901703834534</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1390013843774796</v>
+        <v>0.828622043132782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07077538967132568</v>
+        <v>-0.6066403388977051</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.197216659784317</v>
+        <v>-0.560494065284729</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2919081449508667</v>
+        <v>1.04233729839325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1711062490940094</v>
+        <v>-0.63715660572052</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4878192842006683</v>
+        <v>-0.6520730257034302</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.396039009094238</v>
+        <v>1.860804677009583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9250186681747437</v>
+        <v>-1.600641369819641</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.290909290313721</v>
+        <v>-1.47136390209198</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.394014596939087</v>
+        <v>1.86067795753479</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9192152619361877</v>
+        <v>-1.604183793067932</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.288078308105469</v>
+        <v>-1.465558886528015</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.35674524307251</v>
+        <v>1.849112629890442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.890878438949585</v>
+        <v>-1.61531400680542</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.210018157958984</v>
+        <v>-1.473544716835022</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.430975317955017</v>
+        <v>1.853781461715698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9517402648925781</v>
+        <v>-1.628848791122437</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.355012893676758</v>
+        <v>-1.490837931632996</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6674049496650696</v>
+        <v>0.9234893918037415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4263819456100464</v>
+        <v>-0.9962508082389832</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.060785293579102</v>
+        <v>-0.9776712656021118</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03790916502475739</v>
+        <v>0.6277552247047424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0329175740480423</v>
+        <v>-0.4032332599163055</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05771395564079285</v>
+        <v>-0.3674497604370117</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.007576342672109604</v>
+        <v>0.6068816184997559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01659564673900604</v>
+        <v>-0.4071426391601562</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0153293265029788</v>
+        <v>-0.3505643010139465</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01383860409259796</v>
+        <v>0.5450996160507202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02140113711357117</v>
+        <v>-0.383036881685257</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0201277956366539</v>
+        <v>-0.3093269467353821</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.003224926069378853</v>
+        <v>0.6309136748313904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01635195314884186</v>
+        <v>-0.3971415460109711</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.005727299489080906</v>
+        <v>-0.3724233508110046</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.036040425300598</v>
+        <v>1.54684853553772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6461332440376282</v>
+        <v>-1.277076840400696</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.660794019699097</v>
+        <v>-1.173997640609741</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.427474141120911</v>
+        <v>1.87131404876709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.943478524684906</v>
+        <v>-1.643407583236694</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.33699631690979</v>
+        <v>-1.496121048927307</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.35572874546051</v>
+        <v>1.836412668228149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8910198211669922</v>
+        <v>-1.594096064567566</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.208111524581909</v>
+        <v>-1.459524154663086</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.412049651145935</v>
+        <v>1.855684995651245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9291413426399231</v>
+        <v>-1.618395447731018</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.314556837081909</v>
+        <v>-1.475164294242859</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.40284264087677</v>
+        <v>1.856885194778442</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9265722036361694</v>
+        <v>-1.61810290813446</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.295896530151367</v>
+        <v>-1.477954030036926</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.387739419937134</v>
+        <v>1.842506170272827</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9156930446624756</v>
+        <v>-1.61508846282959</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.273571014404297</v>
+        <v>-1.475814461708069</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.386258959770203</v>
+        <v>1.861229419708252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9225730895996094</v>
+        <v>-1.601967930793762</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.280766010284424</v>
+        <v>-1.468890786170959</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.417539238929749</v>
+        <v>1.882466912269592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9412295818328857</v>
+        <v>-1.636201977729797</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.333983898162842</v>
+        <v>-1.498930811882019</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.416778087615967</v>
+        <v>1.854349374771118</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9381880164146423</v>
+        <v>-1.614156365394592</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.3186936378479</v>
+        <v>-1.469225525856018</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.360920786857605</v>
+        <v>2.23205828666687</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8668915629386902</v>
+        <v>-1.654647827148438</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.257934093475342</v>
+        <v>-1.724038481712341</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.91702127456665</v>
+        <v>2.611166715621948</v>
       </c>
       <c r="C26" t="n">
-        <v>1.994487524032593</v>
+        <v>-2.514825105667114</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.884583473205566</v>
+        <v>-2.276380300521851</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.388217806816101</v>
+        <v>1.836467385292053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9218295216560364</v>
+        <v>-1.582541704177856</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.280236005783081</v>
+        <v>-1.455440163612366</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.435118317604065</v>
+        <v>1.866509556770325</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9508970379829407</v>
+        <v>-1.614589691162109</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.354851722717285</v>
+        <v>-1.475632786750793</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.403677940368652</v>
+        <v>1.854321718215942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9279403686523438</v>
+        <v>-1.600481390953064</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.298919200897217</v>
+        <v>-1.465610146522522</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6674599051475525</v>
+        <v>1.018664002418518</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4335015714168549</v>
+        <v>-1.059342622756958</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.071422338485718</v>
+        <v>-1.069295167922974</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.006294595077633858</v>
+        <v>0.6358284950256348</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0181763730943203</v>
+        <v>-0.4011818468570709</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.007584263570606709</v>
+        <v>-0.3796431422233582</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.01479585841298103</v>
+        <v>0.5959821343421936</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02082196623086929</v>
+        <v>-0.4021968841552734</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02518150955438614</v>
+        <v>-0.3555142879486084</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01182424277067184</v>
+        <v>0.5848209261894226</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02079298347234726</v>
+        <v>-0.3737584054470062</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02023265138268471</v>
+        <v>-0.3245159387588501</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.01951641030609608</v>
+        <v>0.620177149772644</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02386384457349777</v>
+        <v>-0.4252705574035645</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03201042488217354</v>
+        <v>-0.363634467124939</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3220076560974121</v>
+        <v>0.994720995426178</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1881455481052399</v>
+        <v>-0.8177365064620972</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4751287996768951</v>
+        <v>-0.6943763494491577</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3382516503334045</v>
+        <v>1.122477412223816</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2171059548854828</v>
+        <v>-0.9678348898887634</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.535937488079071</v>
+        <v>-0.8773050308227539</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3674956560134888</v>
+        <v>1.142746925354004</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2326283156871796</v>
+        <v>-1.000989079475403</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5704993605613708</v>
+        <v>-0.8879475593566895</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.3374359011650085</v>
+        <v>1.129522800445557</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2180335819721222</v>
+        <v>-0.9929283261299133</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5353718400001526</v>
+        <v>-0.8737558126449585</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3811637163162231</v>
+        <v>1.180610775947571</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2427782118320465</v>
+        <v>-1.015374302864075</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5992178320884705</v>
+        <v>-0.9092273712158203</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1626648753881454</v>
+        <v>0.8592888712882996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09865318238735199</v>
+        <v>-0.697406530380249</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2475562691688538</v>
+        <v>-0.6110180020332336</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1591895222663879</v>
+        <v>0.8613871932029724</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08812348544597626</v>
+        <v>-0.6723632216453552</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2369225472211838</v>
+        <v>-0.6111799478530884</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1622782647609711</v>
+        <v>0.8533124327659607</v>
       </c>
       <c r="C42" t="n">
-        <v>0.091656394302845</v>
+        <v>-0.6615412831306458</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2417593896389008</v>
+        <v>-0.5952165126800537</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1518600881099701</v>
+        <v>0.8477103114128113</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08621920645236969</v>
+        <v>-0.6558143496513367</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2310915887355804</v>
+        <v>-0.5960203409194946</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1949193179607391</v>
+        <v>0.965103805065155</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1162062734365463</v>
+        <v>-0.6717742681503296</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3073665201663971</v>
+        <v>-0.6614352464675903</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4967822432518005</v>
+        <v>1.255434274673462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3071310520172119</v>
+        <v>-1.128244042396545</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7686360478401184</v>
+        <v>-0.9878088235855103</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.47660231590271</v>
+        <v>1.254440307617188</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2954489588737488</v>
+        <v>-1.107502341270447</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7373277544975281</v>
+        <v>-0.9855858087539673</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.4617513418197632</v>
+        <v>1.225747346878052</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2892721891403198</v>
+        <v>-1.096520304679871</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.7218772768974304</v>
+        <v>-0.9701687097549438</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4777912497520447</v>
+        <v>1.230844855308533</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2950249910354614</v>
+        <v>-1.111000418663025</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.7378436326980591</v>
+        <v>-0.9744397401809692</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2856000065803528</v>
+        <v>0.9628891348838806</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1762922704219818</v>
+        <v>-0.9085350632667542</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.4437617659568787</v>
+        <v>-0.7997884750366211</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1609020829200745</v>
+        <v>0.8414832353591919</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08680406212806702</v>
+        <v>-0.6431162357330322</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2346332371234894</v>
+        <v>-0.5955064296722412</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1443837881088257</v>
+        <v>0.8204565644264221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0792221799492836</v>
+        <v>-0.6197668313980103</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2149508744478226</v>
+        <v>-0.5649845600128174</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1328310072422028</v>
+        <v>0.8069502115249634</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06779487431049347</v>
+        <v>-0.5965737700462341</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1894620656967163</v>
+        <v>-0.5562406778335571</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1198695152997971</v>
+        <v>0.7938933372497559</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0626918226480484</v>
+        <v>-0.5889893174171448</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1720751076936722</v>
+        <v>-0.5445646047592163</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.03750135004520416</v>
+        <v>0.626757025718689</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02450171858072281</v>
+        <v>-0.4660604894161224</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.06535900384187698</v>
+        <v>-0.4184126257896423</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05860243737697601</v>
+        <v>0.6513822078704834</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04003198817372322</v>
+        <v>-0.4474537968635559</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.08930554240942001</v>
+        <v>-0.3967910706996918</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0668494924902916</v>
+        <v>0.696421205997467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04220496863126755</v>
+        <v>-0.4449725151062012</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.09945222735404968</v>
+        <v>-0.4261841773986816</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.07738180458545685</v>
+        <v>0.7261078953742981</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04450975731015205</v>
+        <v>-0.4912454783916473</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1166718453168869</v>
+        <v>-0.4732152819633484</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.05089493840932846</v>
+        <v>0.6657872796058655</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03489011526107788</v>
+        <v>-0.4421671330928802</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.08080396056175232</v>
+        <v>-0.4169868230819702</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.08507142961025238</v>
+        <v>0.7464846968650818</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05001422017812729</v>
+        <v>-0.5364113450050354</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1291572004556656</v>
+        <v>-0.4876059293746948</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.09524018317461014</v>
+        <v>0.7586151957511902</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05331046879291534</v>
+        <v>-0.5317807793617249</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1400804221630096</v>
+        <v>-0.5025631189346313</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1028605103492737</v>
+        <v>0.7571534514427185</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05709530413150787</v>
+        <v>-0.5368916988372803</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1459372043609619</v>
+        <v>-0.4990870952606201</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.08912555128335953</v>
+        <v>0.7448262572288513</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05058548599481583</v>
+        <v>-0.5129681825637817</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1332569420337677</v>
+        <v>-0.4869583249092102</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.09578898549079895</v>
+        <v>0.7600695490837097</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04963773488998413</v>
+        <v>-0.5222342014312744</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.141830712556839</v>
+        <v>-0.5044220685958862</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3996076583862305</v>
+        <v>1.251511096954346</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2484951317310333</v>
+        <v>-0.813349723815918</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.673734724521637</v>
+        <v>-0.8682063817977905</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-3.545890331268311</v>
+        <v>3.163501977920532</v>
       </c>
       <c r="C65" t="n">
-        <v>2.418687582015991</v>
+        <v>-2.602212905883789</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.98455286026001</v>
+        <v>-2.543968439102173</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.113465785980225</v>
+        <v>3.523752927780151</v>
       </c>
       <c r="C66" t="n">
-        <v>2.814414262771606</v>
+        <v>-2.980319261550903</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.947403907775879</v>
+        <v>-2.855942010879517</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-4.73822546005249</v>
+        <v>3.974185228347778</v>
       </c>
       <c r="C67" t="n">
-        <v>3.234325647354126</v>
+        <v>-3.439788579940796</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.001655578613281</v>
+        <v>-3.357228994369507</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.174938678741455</v>
+        <v>2.114364147186279</v>
       </c>
       <c r="C68" t="n">
-        <v>1.333746075630188</v>
+        <v>-2.582375764846802</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.408718585968018</v>
+        <v>-2.429396390914917</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1090287566184998</v>
+        <v>0.7653401494026184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05922868102788925</v>
+        <v>-0.5588641166687012</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1569692939519882</v>
+        <v>-0.5095976591110229</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1047599166631699</v>
+        <v>0.7840402722358704</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05741604417562485</v>
+        <v>-0.536277711391449</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1502541303634644</v>
+        <v>-0.5089758038520813</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1227364391088486</v>
+        <v>0.7954520583152771</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06455434858798981</v>
+        <v>-0.5900437235832214</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1772136688232422</v>
+        <v>-0.5394117832183838</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1084888651967049</v>
+        <v>0.7889466881752014</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05851104110479355</v>
+        <v>-0.5723836421966553</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1573048830032349</v>
+        <v>-0.5317721366882324</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.09132812917232513</v>
+        <v>0.7484393715858459</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05153080821037292</v>
+        <v>-0.5117934942245483</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1329398453235626</v>
+        <v>-0.4854515790939331</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.08222723752260208</v>
+        <v>0.7252961993217468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0459144227206707</v>
+        <v>-0.5256674289703369</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1236180812120438</v>
+        <v>-0.4747210741043091</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.08205350488424301</v>
+        <v>0.6929640173912048</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0469486378133297</v>
+        <v>-0.4949615895748138</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1208948940038681</v>
+        <v>-0.4468749165534973</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.06753917038440704</v>
+        <v>0.7130380868911743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03996051102876663</v>
+        <v>-0.4795556366443634</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.1050738990306854</v>
+        <v>-0.4631474614143372</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.05676865577697754</v>
+        <v>0.6691071391105652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03757018223404884</v>
+        <v>-0.4606009721755981</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08984300494194031</v>
+        <v>-0.4288999438285828</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.176921010017395</v>
+        <v>1.551309823989868</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7356626987457275</v>
+        <v>-1.363415956497192</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.864847183227539</v>
+        <v>-1.211153864860535</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.278538942337036</v>
+        <v>1.79010534286499</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8418907523155212</v>
+        <v>-1.569394111633301</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.086203098297119</v>
+        <v>-1.429387211799622</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.366474151611328</v>
+        <v>1.855399131774902</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9055783748626709</v>
+        <v>-1.590279698371887</v>
       </c>
       <c r="D80" t="n">
-        <v>-2.252358436584473</v>
+        <v>-1.479643106460571</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.395165801048279</v>
+        <v>1.867703318595886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9185972213745117</v>
+        <v>-1.588709354400635</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.290322780609131</v>
+        <v>-1.468214392662048</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.358205795288086</v>
+        <v>1.653075456619263</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8985626697540283</v>
+        <v>-1.579020261764526</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.225736379623413</v>
+        <v>-1.371657013893127</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02242713607847691</v>
+        <v>0.6436676383018494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02542342245578766</v>
+        <v>-0.4154376983642578</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03852382674813271</v>
+        <v>-0.3877675533294678</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02655039541423321</v>
+        <v>0.6606423258781433</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02898837625980377</v>
+        <v>-0.4383713603019714</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.04114209860563278</v>
+        <v>-0.4033374488353729</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.04922235012054443</v>
+        <v>0.6977420449256897</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03718758746981621</v>
+        <v>-0.4440104961395264</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.07580170035362244</v>
+        <v>-0.4321756064891815</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0704992488026619</v>
+        <v>0.7046909928321838</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04528907313942909</v>
+        <v>-0.4498094320297241</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1027100384235382</v>
+        <v>-0.4310445785522461</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1309298425912857</v>
+        <v>0.8297227621078491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07141778618097305</v>
+        <v>-0.5243621468544006</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1916646510362625</v>
+        <v>-0.5084801912307739</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.286685436964035</v>
+        <v>1.043525576591492</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1837448328733444</v>
+        <v>-0.918488085269928</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.458611935377121</v>
+        <v>-0.8019593954086304</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3367924392223358</v>
+        <v>1.102120637893677</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2116983830928802</v>
+        <v>-0.9592286348342896</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5228399038314819</v>
+        <v>-0.845895528793335</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3295555412769318</v>
+        <v>1.092526912689209</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2074891924858093</v>
+        <v>-0.9502325057983398</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5102652311325073</v>
+        <v>-0.8423808813095093</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3294759392738342</v>
+        <v>1.120371222496033</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2094383388757706</v>
+        <v>-0.9866020083427429</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5107079148292542</v>
+        <v>-0.8694387674331665</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.2397857308387756</v>
+        <v>0.9527236819267273</v>
       </c>
       <c r="C92" t="n">
-        <v>0.151708260178566</v>
+        <v>-0.8543880581855774</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.3785660564899445</v>
+        <v>-0.7543073892593384</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.2500408589839935</v>
+        <v>0.960527777671814</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1556389778852463</v>
+        <v>-0.7885975241661072</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.3888305723667145</v>
+        <v>-0.7244237065315247</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.2192955166101456</v>
+        <v>0.9406830668449402</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1335790902376175</v>
+        <v>-0.7898882627487183</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.3383629322052002</v>
+        <v>-0.6938669681549072</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.2234755158424377</v>
+        <v>0.97880619764328</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1384932994842529</v>
+        <v>-0.7767515778541565</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.35310098528862</v>
+        <v>-0.7242481708526611</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.2018135190010071</v>
+        <v>0.9428187012672424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1256316155195236</v>
+        <v>-0.7714812159538269</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.3164447844028473</v>
+        <v>-0.6969104409217834</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.141099214553833</v>
+        <v>1.619667768478394</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7033692598342896</v>
+        <v>-1.458201885223389</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.797399997711182</v>
+        <v>-1.288755059242249</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.381830811500549</v>
+        <v>1.821146607398987</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9128972291946411</v>
+        <v>-1.604186534881592</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.269045352935791</v>
+        <v>-1.464133262634277</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.415951609611511</v>
+        <v>1.862029552459717</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9377923011779785</v>
+        <v>-1.591666698455811</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.317622661590576</v>
+        <v>-1.462504506111145</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.423223376274109</v>
+        <v>1.857426404953003</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9463505148887634</v>
+        <v>-1.602710008621216</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.333897352218628</v>
+        <v>-1.463506460189819</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.37463653087616</v>
+        <v>1.873699903488159</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9119367599487305</v>
+        <v>-1.604700446128845</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.258389472961426</v>
+        <v>-1.490784406661987</v>
       </c>
     </row>
   </sheetData>
